--- a/medicine/Enfance/Élodie_Nouhen/Élodie_Nouhen.xlsx
+++ b/medicine/Enfance/Élodie_Nouhen/Élodie_Nouhen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Nouhen</t>
+          <t>Élodie_Nouhen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elodie Nouhen, (née en 1970) est une autrice, graphiste et illustratrice française, notamment en littérature jeunesse.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Nouhen</t>
+          <t>Élodie_Nouhen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née à Clermont-Ferrand[1] le 21 juillet 1970[2]. Elle a suivi une formation à l'École supérieure d’arts graphiques de Penninghen. Elle devient graphiste, illustratrice dans l'édition jeunesse. Elle illustre et créé de nombreux ouvrages, ainsi que des jeux graphiques[3]. Elle intervient également dans les écoles[4]. Elle réside actuellement à Montreuil[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née à Clermont-Ferrand le 21 juillet 1970. Elle a suivi une formation à l'École supérieure d’arts graphiques de Penninghen. Elle devient graphiste, illustratrice dans l'édition jeunesse. Elle illustre et créé de nombreux ouvrages, ainsi que des jeux graphiques. Elle intervient également dans les écoles. Elle réside actuellement à Montreuil.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89lodie_Nouhen</t>
+          <t>Élodie_Nouhen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,16 +556,87 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a participé à de nombreuses œuvres[6],[7],[8], dont :
-Auteure et illustratrice
-Deux petites étoiles, ETEX-le Toucan 1993
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a participé à de nombreuses œuvres dont :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élodie_Nouhen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lodie_Nouhen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Deux petites étoiles, ETEX-le Toucan 1993
 Le petit gardien de phare, Circonflexe , 1998
 Au feu les pompiers !, Didier jeunesse, Pirouette, 2003
-Voyages, Gautier-Languereau, Enfance est poésie, 2004
-Seulement illustratrice
-La grenouille à grande bouche, Texte de Francine Vidal, Didier jeunesse, 2001
+Voyages, Gautier-Languereau, Enfance est poésie, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élodie_Nouhen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89lodie_Nouhen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Seulement illustratrice</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La grenouille à grande bouche, Texte de Francine Vidal, Didier jeunesse, 2001
 Comptines et berceuses du baobab, Texte de Chantal Grosléziat, Didier jeunesse, 2002
 Les deux vies de Taro, Texte de Jean-Pierre Kerloc’h, Didier jeunesse, 2003
 Dans mon jardin, Texte de Jeanne Estival, Bilboquet, 2003
@@ -574,31 +659,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89lodie_Nouhen</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élodie_Nouhen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89lodie_Nouhen</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Prix Sorcières 2003, catégorie tout-petits pour Comptines et berceuses du baobab, avec Chantal Grosléziat, Paul Mindy, Didier Jeunesse
 Prix de l'ADAMI et Prix de l'Académie Charles-Cros 2006 pour le livre-disque Monsieur Satie, l'homme qui avait un petit piano dans la tête : fantaisie pour comédien et pianiste, texte Carl Norac</t>
